--- a/Implementación/Test 3/pareto.xlsx
+++ b/Implementación/Test 3/pareto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TCLAMR\OneDrive\OneDrive - MIC\Documents\GitHub\Tesis\Implementación\Test 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D9EEF23-20C9-42A0-85D3-D50D2545CF3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5CCB9C3-9AB1-4013-B75F-6FFCBE079620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{477DE8B7-06EF-425C-B9AB-7458EE41456B}"/>
   </bookViews>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="892">
   <si>
-    <t>Names</t>
-  </si>
-  <si>
     <t>CLAHE__i1__m52__n2__cl0.73014.png</t>
   </si>
   <si>
@@ -2698,19 +2695,22 @@
     <t>CLAHE__i100__m5__n2__cl0.99736.png</t>
   </si>
   <si>
-    <t>Pareto_1</t>
-  </si>
-  <si>
-    <t>Pareto_2</t>
-  </si>
-  <si>
-    <t>Pareto_3</t>
-  </si>
-  <si>
-    <t>Pareto_4</t>
-  </si>
-  <si>
-    <t>Pareto_5</t>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Ry</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Entropia</t>
+  </si>
+  <si>
+    <t>SSIM</t>
   </si>
 </sst>
 </file>
@@ -3069,13 +3069,14 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="B1" t="s">
         <v>887</v>
@@ -3095,7 +3096,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>52</v>
@@ -3115,7 +3116,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>126</v>
@@ -3135,7 +3136,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>15</v>
@@ -3155,7 +3156,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>206</v>
@@ -3175,7 +3176,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>210</v>
@@ -3195,7 +3196,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>190</v>
@@ -3215,7 +3216,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>222</v>
@@ -3235,7 +3236,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>24</v>
@@ -3255,7 +3256,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -3275,7 +3276,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -3295,7 +3296,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>242</v>
@@ -3315,7 +3316,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>71</v>
@@ -3335,7 +3336,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>124</v>
@@ -3355,7 +3356,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>124</v>
@@ -3375,7 +3376,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>163</v>
@@ -3395,7 +3396,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -3415,7 +3416,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>201</v>
@@ -3435,7 +3436,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>52</v>
@@ -3455,7 +3456,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>73</v>
@@ -3475,7 +3476,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>112</v>
@@ -3495,7 +3496,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -3515,7 +3516,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>224</v>
@@ -3535,7 +3536,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>122</v>
@@ -3555,7 +3556,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>73</v>
@@ -3575,7 +3576,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>49</v>
@@ -3595,7 +3596,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>52</v>
@@ -3615,7 +3616,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>190</v>
@@ -3635,7 +3636,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>24</v>
@@ -3655,7 +3656,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>71</v>
@@ -3675,7 +3676,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>24</v>
@@ -3695,7 +3696,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>250</v>
@@ -3715,7 +3716,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>80</v>
@@ -3735,7 +3736,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>106</v>
@@ -3755,7 +3756,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>84</v>
@@ -3775,7 +3776,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>120</v>
@@ -3795,7 +3796,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>248</v>
@@ -3815,7 +3816,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>54</v>
@@ -3835,7 +3836,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>116</v>
@@ -3855,7 +3856,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>182</v>
@@ -3875,7 +3876,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>242</v>
@@ -3895,7 +3896,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>216</v>
@@ -3915,7 +3916,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>120</v>
@@ -3935,7 +3936,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>228</v>
@@ -3955,7 +3956,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -3975,7 +3976,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>90</v>
@@ -3995,7 +3996,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>182</v>
@@ -4015,7 +4016,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>180</v>
@@ -4035,7 +4036,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>198</v>
@@ -4055,7 +4056,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>207</v>
@@ -4075,7 +4076,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>169</v>
@@ -4095,7 +4096,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>186</v>
@@ -4115,7 +4116,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>124</v>
@@ -4135,7 +4136,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>7</v>
@@ -4155,7 +4156,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>65</v>
@@ -4175,7 +4176,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>218</v>
@@ -4195,7 +4196,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>182</v>
@@ -4215,7 +4216,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>226</v>
@@ -4235,7 +4236,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>104</v>
@@ -4255,7 +4256,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>80</v>
@@ -4275,7 +4276,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>244</v>
@@ -4295,7 +4296,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>106</v>
@@ -4315,7 +4316,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>124</v>
@@ -4335,7 +4336,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>9</v>
@@ -4355,7 +4356,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>192</v>
@@ -4375,7 +4376,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>11</v>
@@ -4395,7 +4396,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>218</v>
@@ -4415,7 +4416,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>106</v>
@@ -4435,7 +4436,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -4455,7 +4456,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>126</v>
@@ -4475,7 +4476,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>169</v>
@@ -4495,7 +4496,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>476</v>
@@ -4515,7 +4516,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>80</v>
@@ -4535,7 +4536,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>172</v>
@@ -4555,7 +4556,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>21</v>
@@ -4575,7 +4576,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>112</v>
@@ -4595,7 +4596,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>124</v>
@@ -4615,7 +4616,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -4635,7 +4636,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>41</v>
@@ -4655,7 +4656,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>240</v>
@@ -4675,7 +4676,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>221</v>
@@ -4695,7 +4696,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>176</v>
@@ -4715,7 +4716,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>255</v>
@@ -4735,7 +4736,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>118</v>
@@ -4755,7 +4756,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>214</v>
@@ -4775,7 +4776,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>214</v>
@@ -4795,7 +4796,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>240</v>
@@ -4815,7 +4816,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>65</v>
@@ -4835,7 +4836,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>188</v>
@@ -4855,7 +4856,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>236</v>
@@ -4875,7 +4876,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>110</v>
@@ -4895,7 +4896,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>71</v>
@@ -4915,7 +4916,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>4</v>
@@ -4935,7 +4936,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>112</v>
@@ -4955,7 +4956,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>15</v>
@@ -4975,7 +4976,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>9</v>
@@ -4995,7 +4996,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -5015,7 +5016,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>222</v>
@@ -5035,7 +5036,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>157</v>
@@ -5055,7 +5056,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>54</v>
@@ -5075,7 +5076,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>54</v>
@@ -5095,7 +5096,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>7</v>
@@ -5115,7 +5116,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>234</v>
@@ -5135,7 +5136,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>80</v>
@@ -5155,7 +5156,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>112</v>
@@ -5175,7 +5176,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>194</v>
@@ -5195,7 +5196,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>11</v>
@@ -5215,7 +5216,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>25</v>
@@ -5235,7 +5236,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>7</v>
@@ -5255,7 +5256,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>248</v>
@@ -5275,7 +5276,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>173</v>
@@ -5295,7 +5296,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>197</v>
@@ -5315,7 +5316,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -5335,7 +5336,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>240</v>
@@ -5355,7 +5356,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>192</v>
@@ -5375,7 +5376,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>242</v>
@@ -5395,7 +5396,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>202</v>
@@ -5415,7 +5416,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -5435,7 +5436,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>234</v>
@@ -5455,7 +5456,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>182</v>
@@ -5475,7 +5476,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>131</v>
@@ -5495,7 +5496,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>173</v>
@@ -5515,7 +5516,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>254</v>
@@ -5535,7 +5536,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>110</v>
@@ -5555,7 +5556,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>69</v>
@@ -5575,7 +5576,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>116</v>
@@ -5595,7 +5596,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>244</v>
@@ -5615,7 +5616,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>192</v>
@@ -5635,7 +5636,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>198</v>
@@ -5655,7 +5656,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>226</v>
@@ -5675,7 +5676,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>212</v>
@@ -5695,7 +5696,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>224</v>
@@ -5715,7 +5716,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>106</v>
@@ -5735,7 +5736,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>54</v>
@@ -5755,7 +5756,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>188</v>
@@ -5775,7 +5776,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>234</v>
@@ -5795,7 +5796,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>192</v>
@@ -5815,7 +5816,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>234</v>
@@ -5835,7 +5836,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139">
         <v>182</v>
@@ -5855,7 +5856,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140">
         <v>172</v>
@@ -5875,7 +5876,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <v>10</v>
@@ -5895,7 +5896,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <v>219</v>
@@ -5915,7 +5916,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <v>38</v>
@@ -5935,7 +5936,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <v>186</v>
@@ -5955,7 +5956,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <v>202</v>
@@ -5975,7 +5976,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146">
         <v>9</v>
@@ -5995,7 +5996,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147">
         <v>202</v>
@@ -6015,7 +6016,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <v>133</v>
@@ -6035,7 +6036,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149">
         <v>147</v>
@@ -6055,7 +6056,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150">
         <v>185</v>
@@ -6075,7 +6076,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151">
         <v>195</v>
@@ -6095,7 +6096,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152">
         <v>193</v>
@@ -6115,7 +6116,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153">
         <v>199</v>
@@ -6135,7 +6136,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154">
         <v>10</v>
@@ -6155,7 +6156,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155">
         <v>36</v>
@@ -6175,7 +6176,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156">
         <v>163</v>
@@ -6195,7 +6196,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157">
         <v>74</v>
@@ -6215,7 +6216,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158">
         <v>151</v>
@@ -6235,7 +6236,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159">
         <v>141</v>
@@ -6255,7 +6256,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160">
         <v>137</v>
@@ -6275,7 +6276,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161">
         <v>251</v>
@@ -6295,7 +6296,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162">
         <v>231</v>
@@ -6315,7 +6316,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163">
         <v>198</v>
@@ -6335,7 +6336,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164">
         <v>74</v>
@@ -6355,7 +6356,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165">
         <v>131</v>
@@ -6375,7 +6376,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166">
         <v>246</v>
@@ -6395,7 +6396,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167">
         <v>106</v>
@@ -6415,7 +6416,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168">
         <v>82</v>
@@ -6435,7 +6436,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169">
         <v>208</v>
@@ -6455,7 +6456,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170">
         <v>186</v>
@@ -6475,7 +6476,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171">
         <v>174</v>
@@ -6495,7 +6496,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172">
         <v>6</v>
@@ -6515,7 +6516,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173">
         <v>5</v>
@@ -6535,7 +6536,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174">
         <v>41</v>
@@ -6555,7 +6556,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175">
         <v>182</v>
@@ -6575,7 +6576,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176">
         <v>116</v>
@@ -6595,7 +6596,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177">
         <v>106</v>
@@ -6615,7 +6616,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178">
         <v>6</v>
@@ -6635,7 +6636,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179">
         <v>15</v>
@@ -6655,7 +6656,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B180">
         <v>15</v>
@@ -6675,7 +6676,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B181">
         <v>6</v>
@@ -6695,7 +6696,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B182">
         <v>38</v>
@@ -6715,7 +6716,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B183">
         <v>41</v>
@@ -6735,7 +6736,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B184">
         <v>69</v>
@@ -6755,7 +6756,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B185">
         <v>6</v>
@@ -6775,7 +6776,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B186">
         <v>6</v>
@@ -6795,7 +6796,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B187">
         <v>15</v>
@@ -6815,7 +6816,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B188">
         <v>15</v>
@@ -6835,7 +6836,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B189">
         <v>4</v>
@@ -6855,7 +6856,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B190">
         <v>2</v>
@@ -6875,7 +6876,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B191">
         <v>6</v>
@@ -6895,7 +6896,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B192">
         <v>56</v>
@@ -6915,7 +6916,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B193">
         <v>4</v>
@@ -6935,7 +6936,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B194">
         <v>14</v>
@@ -6955,7 +6956,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B195">
         <v>31</v>
@@ -6975,7 +6976,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B196">
         <v>18</v>
@@ -6995,7 +6996,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B197">
         <v>6</v>
@@ -7015,7 +7016,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B198">
         <v>15</v>
@@ -7035,7 +7036,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B199">
         <v>15</v>
@@ -7055,7 +7056,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B200">
         <v>15</v>
@@ -7075,7 +7076,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B201">
         <v>24</v>
@@ -7095,7 +7096,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B202">
         <v>8</v>
@@ -7115,7 +7116,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B203">
         <v>5</v>
@@ -7135,7 +7136,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B204">
         <v>21</v>
@@ -7155,7 +7156,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B205">
         <v>211</v>
@@ -7175,7 +7176,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B206">
         <v>15</v>
@@ -7195,7 +7196,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B207">
         <v>11</v>
@@ -7215,7 +7216,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B208">
         <v>2</v>
@@ -7235,7 +7236,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B209">
         <v>204</v>
@@ -7255,7 +7256,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B210">
         <v>198</v>
@@ -7275,7 +7276,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B211">
         <v>67</v>
@@ -7295,7 +7296,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B212">
         <v>49</v>
@@ -7315,7 +7316,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B213">
         <v>7</v>
@@ -7335,7 +7336,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B214">
         <v>11</v>
@@ -7355,7 +7356,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B215">
         <v>5</v>
@@ -7375,7 +7376,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B216">
         <v>25</v>
@@ -7395,7 +7396,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B217">
         <v>114</v>
@@ -7415,7 +7416,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B218">
         <v>10</v>
@@ -7435,7 +7436,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B219">
         <v>231</v>
@@ -7455,7 +7456,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B220">
         <v>29</v>
@@ -7475,7 +7476,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B221">
         <v>74</v>
@@ -7495,7 +7496,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B222">
         <v>74</v>
@@ -7515,7 +7516,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B223">
         <v>4</v>
@@ -7535,7 +7536,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B224">
         <v>207</v>
@@ -7555,7 +7556,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B225">
         <v>82</v>
@@ -7575,7 +7576,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B226">
         <v>120</v>
@@ -7595,7 +7596,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B227">
         <v>202</v>
@@ -7615,7 +7616,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B228">
         <v>118</v>
@@ -7635,7 +7636,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B229">
         <v>49</v>
@@ -7655,7 +7656,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B230">
         <v>25</v>
@@ -7675,7 +7676,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B231">
         <v>17</v>
@@ -7695,7 +7696,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B232">
         <v>38</v>
@@ -7715,7 +7716,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B233">
         <v>71</v>
@@ -7735,7 +7736,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B234">
         <v>190</v>
@@ -7755,7 +7756,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B235">
         <v>184</v>
@@ -7775,7 +7776,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B236">
         <v>450</v>
@@ -7795,7 +7796,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B237">
         <v>139</v>
@@ -7815,7 +7816,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B238">
         <v>161</v>
@@ -7835,7 +7836,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B239">
         <v>243</v>
@@ -7855,7 +7856,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B240">
         <v>145</v>
@@ -7875,7 +7876,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B241">
         <v>179</v>
@@ -7895,7 +7896,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B242">
         <v>5</v>
@@ -7915,7 +7916,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B243">
         <v>126</v>
@@ -7935,7 +7936,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B244">
         <v>124</v>
@@ -7955,7 +7956,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B245">
         <v>252</v>
@@ -7975,7 +7976,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B246">
         <v>80</v>
@@ -7995,7 +7996,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B247">
         <v>76</v>
@@ -8015,7 +8016,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B248">
         <v>8</v>
@@ -8035,7 +8036,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B249">
         <v>54</v>
@@ -8055,7 +8056,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B250">
         <v>56</v>
@@ -8075,7 +8076,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B251">
         <v>232</v>
@@ -8095,7 +8096,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B252">
         <v>198</v>
@@ -8115,7 +8116,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B253">
         <v>174</v>
@@ -8135,7 +8136,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B254">
         <v>129</v>
@@ -8155,7 +8156,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B255">
         <v>29</v>
@@ -8175,7 +8176,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B256">
         <v>71</v>
@@ -8195,7 +8196,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B257">
         <v>202</v>
@@ -8215,7 +8216,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B258">
         <v>120</v>
@@ -8235,7 +8236,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B259">
         <v>76</v>
@@ -8255,7 +8256,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B260">
         <v>192</v>
@@ -8275,7 +8276,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B261">
         <v>192</v>
@@ -8295,7 +8296,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B262">
         <v>210</v>
@@ -8315,7 +8316,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B263">
         <v>38</v>
@@ -8335,7 +8336,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B264">
         <v>252</v>
@@ -8355,7 +8356,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B265">
         <v>240</v>
@@ -8375,7 +8376,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B266">
         <v>319</v>
@@ -8395,7 +8396,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B267">
         <v>133</v>
@@ -8415,7 +8416,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B268">
         <v>108</v>
@@ -8435,7 +8436,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B269">
         <v>218</v>
@@ -8455,7 +8456,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B270">
         <v>254</v>
@@ -8475,7 +8476,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B271">
         <v>190</v>
@@ -8495,7 +8496,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B272">
         <v>220</v>
@@ -8515,7 +8516,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B273">
         <v>65</v>
@@ -8535,7 +8536,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B274">
         <v>222</v>
@@ -8555,7 +8556,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B275">
         <v>118</v>
@@ -8575,7 +8576,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B276">
         <v>216</v>
@@ -8595,7 +8596,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B277">
         <v>246</v>
@@ -8615,7 +8616,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B278">
         <v>196</v>
@@ -8635,7 +8636,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B279">
         <v>69</v>
@@ -8655,7 +8656,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B280">
         <v>110</v>
@@ -8675,7 +8676,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B281">
         <v>178</v>
@@ -8695,7 +8696,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B282">
         <v>135</v>
@@ -8715,7 +8716,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B283">
         <v>137</v>
@@ -8735,7 +8736,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B284">
         <v>15</v>
@@ -8755,7 +8756,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B285">
         <v>24</v>
@@ -8775,7 +8776,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B286">
         <v>126</v>
@@ -8795,7 +8796,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B287">
         <v>126</v>
@@ -8815,7 +8816,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B288">
         <v>49</v>
@@ -8835,7 +8836,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B289">
         <v>67</v>
@@ -8855,7 +8856,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -8875,7 +8876,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B291">
         <v>236</v>
@@ -8895,7 +8896,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B292">
         <v>126</v>
@@ -8915,7 +8916,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B293">
         <v>206</v>
@@ -8935,7 +8936,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B294">
         <v>238</v>
@@ -8955,7 +8956,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B295">
         <v>206</v>
@@ -8975,7 +8976,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B296">
         <v>242</v>
@@ -8995,7 +8996,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B297">
         <v>176</v>
@@ -9015,7 +9016,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B298">
         <v>194</v>
@@ -9035,7 +9036,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B299">
         <v>124</v>
@@ -9055,7 +9056,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B300">
         <v>67</v>
@@ -9075,7 +9076,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B301">
         <v>74</v>
@@ -9095,7 +9096,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B302">
         <v>7</v>
@@ -9115,7 +9116,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B303">
         <v>254</v>
@@ -9135,7 +9136,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B304">
         <v>106</v>
@@ -9155,7 +9156,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B305">
         <v>122</v>
@@ -9175,7 +9176,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B306">
         <v>218</v>
@@ -9195,7 +9196,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B307">
         <v>80</v>
@@ -9215,7 +9216,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B308">
         <v>238</v>
@@ -9235,7 +9236,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B309">
         <v>252</v>
@@ -9255,7 +9256,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B310">
         <v>71</v>
@@ -9275,7 +9276,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B311">
         <v>218</v>
@@ -9295,7 +9296,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B312">
         <v>204</v>
@@ -9315,7 +9316,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B313">
         <v>10</v>
@@ -9335,7 +9336,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B314">
         <v>248</v>
@@ -9355,7 +9356,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B315">
         <v>226</v>
@@ -9375,7 +9376,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B316">
         <v>204</v>
@@ -9395,7 +9396,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B317">
         <v>74</v>
@@ -9415,7 +9416,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B318">
         <v>25</v>
@@ -9435,7 +9436,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B319">
         <v>8</v>
@@ -9455,7 +9456,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B320">
         <v>10</v>
@@ -9475,7 +9476,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B321">
         <v>73</v>
@@ -9495,7 +9496,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B322">
         <v>17</v>
@@ -9515,7 +9516,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B323">
         <v>76</v>
@@ -9535,7 +9536,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B324">
         <v>5</v>
@@ -9555,7 +9556,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B325">
         <v>204</v>
@@ -9575,7 +9576,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B326">
         <v>250</v>
@@ -9595,7 +9596,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B327">
         <v>15</v>
@@ -9615,7 +9616,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B328">
         <v>5</v>
@@ -9635,7 +9636,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B329">
         <v>9</v>
@@ -9655,7 +9656,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B330">
         <v>15</v>
@@ -9675,7 +9676,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B331">
         <v>15</v>
@@ -9695,7 +9696,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B332">
         <v>178</v>
@@ -9715,7 +9716,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B333">
         <v>204</v>
@@ -9735,7 +9736,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B334">
         <v>188</v>
@@ -9755,7 +9756,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B335">
         <v>15</v>
@@ -9775,7 +9776,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B336">
         <v>10</v>
@@ -9795,7 +9796,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B337">
         <v>8</v>
@@ -9815,7 +9816,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B338">
         <v>5</v>
@@ -9835,7 +9836,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B339">
         <v>167</v>
@@ -9855,7 +9856,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B340">
         <v>249</v>
@@ -9875,7 +9876,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B341">
         <v>135</v>
@@ -9895,7 +9896,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B342">
         <v>244</v>
@@ -9915,7 +9916,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B343">
         <v>120</v>
@@ -9935,7 +9936,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B344">
         <v>104</v>
@@ -9955,7 +9956,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B345">
         <v>104</v>
@@ -9975,7 +9976,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B346">
         <v>218</v>
@@ -9995,7 +9996,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B347">
         <v>251</v>
@@ -10015,7 +10016,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B348">
         <v>216</v>
@@ -10035,7 +10036,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B349">
         <v>172</v>
@@ -10055,7 +10056,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B350">
         <v>124</v>
@@ -10075,7 +10076,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B351">
         <v>177</v>
@@ -10095,7 +10096,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B352">
         <v>29</v>
@@ -10115,7 +10116,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B353">
         <v>51</v>
@@ -10135,7 +10136,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B354">
         <v>73</v>
@@ -10155,7 +10156,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B355">
         <v>110</v>
@@ -10175,7 +10176,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B356">
         <v>252</v>
@@ -10195,7 +10196,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B357">
         <v>174</v>
@@ -10215,7 +10216,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B358">
         <v>118</v>
@@ -10235,7 +10236,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B359">
         <v>56</v>
@@ -10255,7 +10256,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B360">
         <v>67</v>
@@ -10275,7 +10276,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B361">
         <v>4</v>
@@ -10295,7 +10296,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B362">
         <v>234</v>
@@ -10315,7 +10316,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B363">
         <v>202</v>
@@ -10335,7 +10336,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B364">
         <v>177</v>
@@ -10355,7 +10356,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B365">
         <v>155</v>
@@ -10375,7 +10376,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B366">
         <v>169</v>
@@ -10395,7 +10396,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B367">
         <v>80</v>
@@ -10415,7 +10416,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B368">
         <v>73</v>
@@ -10435,7 +10436,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B369">
         <v>15</v>
@@ -10455,7 +10456,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B370">
         <v>17</v>
@@ -10475,7 +10476,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B371">
         <v>11</v>
@@ -10495,7 +10496,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B372">
         <v>11</v>
@@ -10515,7 +10516,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B373">
         <v>110</v>
@@ -10535,7 +10536,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B374">
         <v>189</v>
@@ -10555,7 +10556,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B375">
         <v>217</v>
@@ -10575,7 +10576,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B376">
         <v>252</v>
@@ -10595,7 +10596,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B377">
         <v>118</v>
@@ -10615,7 +10616,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B378">
         <v>71</v>
@@ -10635,7 +10636,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B379">
         <v>84</v>
@@ -10655,7 +10656,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B380">
         <v>17</v>
@@ -10675,7 +10676,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B381">
         <v>17</v>
@@ -10695,7 +10696,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B382">
         <v>6</v>
@@ -10715,7 +10716,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B383">
         <v>139</v>
@@ -10735,7 +10736,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B384">
         <v>193</v>
@@ -10755,7 +10756,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B385">
         <v>175</v>
@@ -10775,7 +10776,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B386">
         <v>17</v>
@@ -10795,7 +10796,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B387">
         <v>104</v>
@@ -10815,7 +10816,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B388">
         <v>76</v>
@@ -10835,7 +10836,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B389">
         <v>82</v>
@@ -10855,7 +10856,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B390">
         <v>74</v>
@@ -10875,7 +10876,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B391">
         <v>4</v>
@@ -10895,7 +10896,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B392">
         <v>159</v>
@@ -10915,7 +10916,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B393">
         <v>65</v>
@@ -10935,7 +10936,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B394">
         <v>76</v>
@@ -10955,7 +10956,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B395">
         <v>84</v>
@@ -10975,7 +10976,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B396">
         <v>80</v>
@@ -10995,7 +10996,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B397">
         <v>73</v>
@@ -11015,7 +11016,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B398">
         <v>52</v>
@@ -11035,7 +11036,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B399">
         <v>24</v>
@@ -11055,7 +11056,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B400">
         <v>5</v>
@@ -11075,7 +11076,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B401">
         <v>56</v>
@@ -11095,7 +11096,7 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B402">
         <v>38</v>
@@ -11115,7 +11116,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B403">
         <v>24</v>
@@ -11135,7 +11136,7 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B404">
         <v>7</v>
@@ -11155,7 +11156,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B405">
         <v>8</v>
@@ -11175,7 +11176,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B406">
         <v>11</v>
@@ -11195,7 +11196,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B407">
         <v>207</v>
@@ -11215,7 +11216,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B408">
         <v>24</v>
@@ -11235,7 +11236,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B409">
         <v>24</v>
@@ -11255,7 +11256,7 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B410">
         <v>67</v>
@@ -11275,7 +11276,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B411">
         <v>52</v>
@@ -11295,7 +11296,7 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B412">
         <v>49</v>
@@ -11315,7 +11316,7 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B413">
         <v>25</v>
@@ -11335,7 +11336,7 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B414">
         <v>5</v>
@@ -11355,7 +11356,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B415">
         <v>5</v>
@@ -11375,7 +11376,7 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B416">
         <v>7</v>
@@ -11395,7 +11396,7 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B417">
         <v>8</v>
@@ -11415,7 +11416,7 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B418">
         <v>10</v>
@@ -11435,7 +11436,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B419">
         <v>122</v>
@@ -11455,7 +11456,7 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B420">
         <v>5</v>
@@ -11475,7 +11476,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B421">
         <v>15</v>
@@ -11495,7 +11496,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B422">
         <v>71</v>
@@ -11515,7 +11516,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B423">
         <v>114</v>
@@ -11535,7 +11536,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B424">
         <v>182</v>
@@ -11555,7 +11556,7 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B425">
         <v>11</v>
@@ -11575,7 +11576,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B426">
         <v>17</v>
@@ -11595,7 +11596,7 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B427">
         <v>9</v>
@@ -11615,7 +11616,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B428">
         <v>73</v>
@@ -11635,7 +11636,7 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B429">
         <v>71</v>
@@ -11655,7 +11656,7 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B430">
         <v>17</v>
@@ -11675,7 +11676,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B431">
         <v>8</v>
@@ -11695,7 +11696,7 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B432">
         <v>9</v>
@@ -11715,7 +11716,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B433">
         <v>4</v>
@@ -11735,7 +11736,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B434">
         <v>4</v>
@@ -11755,7 +11756,7 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B435">
         <v>226</v>
@@ -11775,7 +11776,7 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B436">
         <v>3</v>
@@ -11795,7 +11796,7 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B437">
         <v>9</v>
@@ -11815,7 +11816,7 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B438">
         <v>25</v>
@@ -11835,7 +11836,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B439">
         <v>41</v>
@@ -11855,7 +11856,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B440">
         <v>15</v>
@@ -11875,7 +11876,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B441">
         <v>10</v>
@@ -11895,7 +11896,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B442">
         <v>9</v>
@@ -11915,7 +11916,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B443">
         <v>9</v>
@@ -11935,7 +11936,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B444">
         <v>4</v>
@@ -11955,7 +11956,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B445">
         <v>25</v>
@@ -11975,7 +11976,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B446">
         <v>126</v>
@@ -11995,7 +11996,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B447">
         <v>41</v>
@@ -12015,7 +12016,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B448">
         <v>17</v>
@@ -12035,7 +12036,7 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B449">
         <v>208</v>
@@ -12055,7 +12056,7 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B450">
         <v>9</v>
@@ -12075,7 +12076,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B451">
         <v>8</v>
@@ -12095,7 +12096,7 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B452">
         <v>15</v>
@@ -12115,7 +12116,7 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B453">
         <v>8</v>
@@ -12135,7 +12136,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B454">
         <v>67</v>
@@ -12155,7 +12156,7 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B455">
         <v>178</v>
@@ -12175,7 +12176,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B456">
         <v>240</v>
@@ -12195,7 +12196,7 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B457">
         <v>82</v>
@@ -12215,7 +12216,7 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B458">
         <v>124</v>
@@ -12235,7 +12236,7 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B459">
         <v>226</v>
@@ -12255,7 +12256,7 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B460">
         <v>149</v>
@@ -12275,7 +12276,7 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B461">
         <v>4</v>
@@ -12295,7 +12296,7 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B462">
         <v>38</v>
@@ -12315,7 +12316,7 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B463">
         <v>82</v>
@@ -12335,7 +12336,7 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B464">
         <v>122</v>
@@ -12355,7 +12356,7 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B465">
         <v>76</v>
@@ -12375,7 +12376,7 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B466">
         <v>54</v>
@@ -12395,7 +12396,7 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B467">
         <v>38</v>
@@ -12415,7 +12416,7 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B468">
         <v>112</v>
@@ -12435,7 +12436,7 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B469">
         <v>218</v>
@@ -12455,7 +12456,7 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B470">
         <v>210</v>
@@ -12475,7 +12476,7 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B471">
         <v>15</v>
@@ -12495,7 +12496,7 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B472">
         <v>6</v>
@@ -12515,7 +12516,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B473">
         <v>6</v>
@@ -12535,7 +12536,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B474">
         <v>153</v>
@@ -12555,7 +12556,7 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B475">
         <v>224</v>
@@ -12575,7 +12576,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B476">
         <v>212</v>
@@ -12595,7 +12596,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B477">
         <v>9</v>
@@ -12615,7 +12616,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B478">
         <v>135</v>
@@ -12635,7 +12636,7 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B479">
         <v>191</v>
@@ -12655,7 +12656,7 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B480">
         <v>29</v>
@@ -12675,7 +12676,7 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B481">
         <v>82</v>
@@ -12695,7 +12696,7 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B482">
         <v>192</v>
@@ -12715,7 +12716,7 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B483">
         <v>139</v>
@@ -12735,7 +12736,7 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B484">
         <v>209</v>
@@ -12755,7 +12756,7 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B485">
         <v>214</v>
@@ -12775,7 +12776,7 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B486">
         <v>6</v>
@@ -12795,7 +12796,7 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B487">
         <v>124</v>
@@ -12815,7 +12816,7 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B488">
         <v>248</v>
@@ -12835,7 +12836,7 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B489">
         <v>104</v>
@@ -12855,7 +12856,7 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B490">
         <v>5</v>
@@ -12875,7 +12876,7 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B491">
         <v>112</v>
@@ -12895,7 +12896,7 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B492">
         <v>54</v>
@@ -12915,7 +12916,7 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B493">
         <v>25</v>
@@ -12935,7 +12936,7 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B494">
         <v>188</v>
@@ -12955,7 +12956,7 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B495">
         <v>84</v>
@@ -12975,7 +12976,7 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B496">
         <v>8</v>
@@ -12995,7 +12996,7 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B497">
         <v>189</v>
@@ -13015,7 +13016,7 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B498">
         <v>131</v>
@@ -13035,7 +13036,7 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B499">
         <v>11</v>
@@ -13055,7 +13056,7 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B500">
         <v>189</v>
@@ -13075,7 +13076,7 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B501">
         <v>112</v>
@@ -13095,7 +13096,7 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B502">
         <v>73</v>
@@ -13115,7 +13116,7 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B503">
         <v>220</v>
@@ -13135,7 +13136,7 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B504">
         <v>244</v>
@@ -13155,7 +13156,7 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B505">
         <v>250</v>
@@ -13175,7 +13176,7 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B506">
         <v>15</v>
@@ -13195,7 +13196,7 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B507">
         <v>15</v>
@@ -13215,7 +13216,7 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B508">
         <v>15</v>
@@ -13235,7 +13236,7 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B509">
         <v>226</v>
@@ -13255,7 +13256,7 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B510">
         <v>206</v>
@@ -13275,7 +13276,7 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B511">
         <v>250</v>
@@ -13295,7 +13296,7 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B512">
         <v>224</v>
@@ -13315,7 +13316,7 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B513">
         <v>178</v>
@@ -13335,7 +13336,7 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B514">
         <v>212</v>
@@ -13355,7 +13356,7 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B515">
         <v>198</v>
@@ -13375,7 +13376,7 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B516">
         <v>4</v>
@@ -13395,7 +13396,7 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B517">
         <v>41</v>
@@ -13415,7 +13416,7 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B518">
         <v>189</v>
@@ -13435,7 +13436,7 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B519">
         <v>17</v>
@@ -13455,7 +13456,7 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B520">
         <v>76</v>
@@ -13475,7 +13476,7 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B521">
         <v>6</v>
@@ -13495,7 +13496,7 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B522">
         <v>224</v>
@@ -13515,7 +13516,7 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B523">
         <v>246</v>
@@ -13535,7 +13536,7 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B524">
         <v>240</v>
@@ -13555,7 +13556,7 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B525">
         <v>202</v>
@@ -13575,7 +13576,7 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B526">
         <v>246</v>
@@ -13595,7 +13596,7 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B527">
         <v>29</v>
@@ -13615,7 +13616,7 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B528">
         <v>206</v>
@@ -13635,7 +13636,7 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B529">
         <v>194</v>
@@ -13655,7 +13656,7 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B530">
         <v>69</v>
@@ -13675,7 +13676,7 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B531">
         <v>242</v>
@@ -13695,7 +13696,7 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B532">
         <v>15</v>
@@ -13715,7 +13716,7 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B533">
         <v>50</v>
@@ -13735,7 +13736,7 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B534">
         <v>133</v>
@@ -13755,7 +13756,7 @@
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B535">
         <v>139</v>
@@ -13775,7 +13776,7 @@
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B536">
         <v>182</v>
@@ -13795,7 +13796,7 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B537">
         <v>186</v>
@@ -13815,7 +13816,7 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B538">
         <v>74</v>
@@ -13835,7 +13836,7 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B539">
         <v>5</v>
@@ -13855,7 +13856,7 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B540">
         <v>354</v>
@@ -13875,7 +13876,7 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B541">
         <v>6</v>
@@ -13895,7 +13896,7 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B542">
         <v>192</v>
@@ -13915,7 +13916,7 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B543">
         <v>234</v>
@@ -13935,7 +13936,7 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B544">
         <v>180</v>
@@ -13955,7 +13956,7 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B545">
         <v>240</v>
@@ -13975,7 +13976,7 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B546">
         <v>230</v>
@@ -13995,7 +13996,7 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B547">
         <v>28</v>
@@ -14015,7 +14016,7 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B548">
         <v>6</v>
@@ -14035,7 +14036,7 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B549">
         <v>112</v>
@@ -14055,7 +14056,7 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B550">
         <v>194</v>
@@ -14075,7 +14076,7 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B551">
         <v>250</v>
@@ -14095,7 +14096,7 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B552">
         <v>73</v>
@@ -14115,7 +14116,7 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B553">
         <v>11</v>
@@ -14135,7 +14136,7 @@
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B554">
         <v>202</v>
@@ -14155,7 +14156,7 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B555">
         <v>12</v>
@@ -14175,7 +14176,7 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B556">
         <v>112</v>
@@ -14195,7 +14196,7 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B557">
         <v>176</v>
@@ -14215,7 +14216,7 @@
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B558">
         <v>74</v>
@@ -14235,7 +14236,7 @@
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B559">
         <v>9</v>
@@ -14255,7 +14256,7 @@
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B560">
         <v>208</v>
@@ -14275,7 +14276,7 @@
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B561">
         <v>228</v>
@@ -14295,7 +14296,7 @@
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B562">
         <v>244</v>
@@ -14315,7 +14316,7 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B563">
         <v>106</v>
@@ -14335,7 +14336,7 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B564">
         <v>200</v>
@@ -14355,7 +14356,7 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B565">
         <v>252</v>
@@ -14375,7 +14376,7 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B566">
         <v>238</v>
@@ -14395,7 +14396,7 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B567">
         <v>112</v>
@@ -14415,7 +14416,7 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B568">
         <v>52</v>
@@ -14435,7 +14436,7 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B569">
         <v>120</v>
@@ -14455,7 +14456,7 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B570">
         <v>244</v>
@@ -14475,7 +14476,7 @@
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B571">
         <v>194</v>
@@ -14495,7 +14496,7 @@
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B572">
         <v>76</v>
@@ -14515,7 +14516,7 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B573">
         <v>174</v>
@@ -14535,7 +14536,7 @@
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B574">
         <v>124</v>
@@ -14555,7 +14556,7 @@
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B575">
         <v>15</v>
@@ -14575,7 +14576,7 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B576">
         <v>11</v>
@@ -14595,7 +14596,7 @@
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B577">
         <v>123</v>
@@ -14615,7 +14616,7 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B578">
         <v>155</v>
@@ -14635,7 +14636,7 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B579">
         <v>188</v>
@@ -14655,7 +14656,7 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B580">
         <v>49</v>
@@ -14675,7 +14676,7 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B581">
         <v>41</v>
@@ -14695,7 +14696,7 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B582">
         <v>196</v>
@@ -14715,7 +14716,7 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B583">
         <v>216</v>
@@ -14735,7 +14736,7 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B584">
         <v>254</v>
@@ -14755,7 +14756,7 @@
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B585">
         <v>242</v>
@@ -14775,7 +14776,7 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B586">
         <v>202</v>
@@ -14795,7 +14796,7 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B587">
         <v>25</v>
@@ -14815,7 +14816,7 @@
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B588">
         <v>67</v>
@@ -14835,7 +14836,7 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B589">
         <v>214</v>
@@ -14855,7 +14856,7 @@
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B590">
         <v>220</v>
@@ -14875,7 +14876,7 @@
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B591">
         <v>243</v>
@@ -14895,7 +14896,7 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B592">
         <v>224</v>
@@ -14915,7 +14916,7 @@
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B593">
         <v>242</v>
@@ -14935,7 +14936,7 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B594">
         <v>198</v>
@@ -14955,7 +14956,7 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B595">
         <v>244</v>
@@ -14975,7 +14976,7 @@
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B596">
         <v>202</v>
@@ -14995,7 +14996,7 @@
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B597">
         <v>236</v>
@@ -15015,7 +15016,7 @@
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B598">
         <v>204</v>
@@ -15035,7 +15036,7 @@
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B599">
         <v>198</v>
@@ -15055,7 +15056,7 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B600">
         <v>118</v>
@@ -15075,7 +15076,7 @@
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B601">
         <v>15</v>
@@ -15095,7 +15096,7 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B602">
         <v>118</v>
@@ -15115,7 +15116,7 @@
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B603">
         <v>8</v>
@@ -15135,7 +15136,7 @@
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B604">
         <v>214</v>
@@ -15155,7 +15156,7 @@
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B605">
         <v>202</v>
@@ -15175,7 +15176,7 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B606">
         <v>226</v>
@@ -15195,7 +15196,7 @@
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B607">
         <v>29</v>
@@ -15215,7 +15216,7 @@
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B608">
         <v>29</v>
@@ -15235,7 +15236,7 @@
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B609">
         <v>5</v>
@@ -15255,7 +15256,7 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B610">
         <v>9</v>
@@ -15275,7 +15276,7 @@
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B611">
         <v>252</v>
@@ -15295,7 +15296,7 @@
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B612">
         <v>118</v>
@@ -15315,7 +15316,7 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B613">
         <v>4</v>
@@ -15335,7 +15336,7 @@
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B614">
         <v>118</v>
@@ -15355,7 +15356,7 @@
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B615">
         <v>242</v>
@@ -15375,7 +15376,7 @@
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B616">
         <v>250</v>
@@ -15395,7 +15396,7 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B617">
         <v>498</v>
@@ -15415,7 +15416,7 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B618">
         <v>220</v>
@@ -15435,7 +15436,7 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B619">
         <v>25</v>
@@ -15455,7 +15456,7 @@
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B620">
         <v>184</v>
@@ -15475,7 +15476,7 @@
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B621">
         <v>204</v>
@@ -15495,7 +15496,7 @@
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B622">
         <v>172</v>
@@ -15515,7 +15516,7 @@
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B623">
         <v>248</v>
@@ -15535,7 +15536,7 @@
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B624">
         <v>110</v>
@@ -15555,7 +15556,7 @@
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B625">
         <v>10</v>
@@ -15575,7 +15576,7 @@
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B626">
         <v>186</v>
@@ -15595,7 +15596,7 @@
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B627">
         <v>242</v>
@@ -15615,7 +15616,7 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B628">
         <v>202</v>
@@ -15635,7 +15636,7 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B629">
         <v>218</v>
@@ -15655,7 +15656,7 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B630">
         <v>220</v>
@@ -15675,7 +15676,7 @@
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B631">
         <v>210</v>
@@ -15695,7 +15696,7 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B632">
         <v>174</v>
@@ -15715,7 +15716,7 @@
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B633">
         <v>145</v>
@@ -15735,7 +15736,7 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B634">
         <v>7</v>
@@ -15755,7 +15756,7 @@
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B635">
         <v>11</v>
@@ -15775,7 +15776,7 @@
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B636">
         <v>4</v>
@@ -15795,7 +15796,7 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B637">
         <v>74</v>
@@ -15815,7 +15816,7 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B638">
         <v>214</v>
@@ -15835,7 +15836,7 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B639">
         <v>4</v>
@@ -15855,7 +15856,7 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B640">
         <v>126</v>
@@ -15875,7 +15876,7 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B641">
         <v>25</v>
@@ -15895,7 +15896,7 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B642">
         <v>116</v>
@@ -15915,7 +15916,7 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B643">
         <v>230</v>
@@ -15935,7 +15936,7 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B644">
         <v>213</v>
@@ -15955,7 +15956,7 @@
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B645">
         <v>137</v>
@@ -15975,7 +15976,7 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B646">
         <v>5</v>
@@ -15995,7 +15996,7 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B647">
         <v>9</v>
@@ -16015,7 +16016,7 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B648">
         <v>78</v>
@@ -16035,7 +16036,7 @@
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B649">
         <v>118</v>
@@ -16055,7 +16056,7 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B650">
         <v>10</v>
@@ -16075,7 +16076,7 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B651">
         <v>65</v>
@@ -16095,7 +16096,7 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B652">
         <v>9</v>
@@ -16115,7 +16116,7 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B653">
         <v>11</v>
@@ -16135,7 +16136,7 @@
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B654">
         <v>106</v>
@@ -16155,7 +16156,7 @@
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B655">
         <v>279</v>
@@ -16175,7 +16176,7 @@
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B656">
         <v>17</v>
@@ -16195,7 +16196,7 @@
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B657">
         <v>9</v>
@@ -16215,7 +16216,7 @@
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B658">
         <v>202</v>
@@ -16235,7 +16236,7 @@
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B659">
         <v>4</v>
@@ -16255,7 +16256,7 @@
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B660">
         <v>214</v>
@@ -16275,7 +16276,7 @@
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B661">
         <v>149</v>
@@ -16295,7 +16296,7 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B662">
         <v>205</v>
@@ -16315,7 +16316,7 @@
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B663">
         <v>225</v>
@@ -16335,7 +16336,7 @@
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B664">
         <v>6</v>
@@ -16355,7 +16356,7 @@
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B665">
         <v>78</v>
@@ -16375,7 +16376,7 @@
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B666">
         <v>8</v>
@@ -16395,7 +16396,7 @@
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B667">
         <v>196</v>
@@ -16415,7 +16416,7 @@
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B668">
         <v>65</v>
@@ -16435,7 +16436,7 @@
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B669">
         <v>5</v>
@@ -16455,7 +16456,7 @@
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B670">
         <v>74</v>
@@ -16475,7 +16476,7 @@
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B671">
         <v>15</v>
@@ -16495,7 +16496,7 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B672">
         <v>10</v>
@@ -16515,7 +16516,7 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B673">
         <v>230</v>
@@ -16535,7 +16536,7 @@
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B674">
         <v>25</v>
@@ -16555,7 +16556,7 @@
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B675">
         <v>15</v>
@@ -16575,7 +16576,7 @@
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B676">
         <v>10</v>
@@ -16595,7 +16596,7 @@
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B677">
         <v>4</v>
@@ -16615,7 +16616,7 @@
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B678">
         <v>184</v>
@@ -16635,7 +16636,7 @@
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B679">
         <v>120</v>
@@ -16655,7 +16656,7 @@
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B680">
         <v>29</v>
@@ -16675,7 +16676,7 @@
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B681">
         <v>5</v>
@@ -16695,7 +16696,7 @@
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B682">
         <v>51</v>
@@ -16715,7 +16716,7 @@
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B683">
         <v>124</v>
@@ -16735,7 +16736,7 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B684">
         <v>234</v>
@@ -16755,7 +16756,7 @@
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B685">
         <v>188</v>
@@ -16775,7 +16776,7 @@
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B686">
         <v>202</v>
@@ -16795,7 +16796,7 @@
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B687">
         <v>226</v>
@@ -16815,7 +16816,7 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B688">
         <v>73</v>
@@ -16835,7 +16836,7 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B689">
         <v>74</v>
@@ -16855,7 +16856,7 @@
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B690">
         <v>208</v>
@@ -16875,7 +16876,7 @@
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B691">
         <v>198</v>
@@ -16895,7 +16896,7 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B692">
         <v>206</v>
@@ -16915,7 +16916,7 @@
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B693">
         <v>41</v>
@@ -16935,7 +16936,7 @@
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B694">
         <v>30</v>
@@ -16955,7 +16956,7 @@
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B695">
         <v>15</v>
@@ -16975,7 +16976,7 @@
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B696">
         <v>11</v>
@@ -16995,7 +16996,7 @@
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B697">
         <v>204</v>
@@ -17015,7 +17016,7 @@
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B698">
         <v>17</v>
@@ -17035,7 +17036,7 @@
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B699">
         <v>24</v>
@@ -17055,7 +17056,7 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B700">
         <v>240</v>
@@ -17075,7 +17076,7 @@
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B701">
         <v>41</v>
@@ -17095,7 +17096,7 @@
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B702">
         <v>73</v>
@@ -17115,7 +17116,7 @@
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B703">
         <v>82</v>
@@ -17135,7 +17136,7 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B704">
         <v>9</v>
@@ -17155,7 +17156,7 @@
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B705">
         <v>10</v>
@@ -17175,7 +17176,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B706">
         <v>25</v>
@@ -17195,7 +17196,7 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B707">
         <v>25</v>
@@ -17215,7 +17216,7 @@
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B708">
         <v>15</v>
@@ -17235,7 +17236,7 @@
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B709">
         <v>4</v>
@@ -17255,7 +17256,7 @@
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B710">
         <v>5</v>
@@ -17275,7 +17276,7 @@
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B711">
         <v>65</v>
@@ -17295,7 +17296,7 @@
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B712">
         <v>82</v>
@@ -17315,7 +17316,7 @@
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B713">
         <v>116</v>
@@ -17335,7 +17336,7 @@
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B714">
         <v>78</v>
@@ -17355,7 +17356,7 @@
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B715">
         <v>29</v>
@@ -17375,7 +17376,7 @@
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B716">
         <v>6</v>
@@ -17395,7 +17396,7 @@
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B717">
         <v>6</v>
@@ -17415,7 +17416,7 @@
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B718">
         <v>10</v>
@@ -17435,7 +17436,7 @@
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B719">
         <v>17</v>
@@ -17455,7 +17456,7 @@
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B720">
         <v>226</v>
@@ -17475,7 +17476,7 @@
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B721">
         <v>186</v>
@@ -17495,7 +17496,7 @@
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B722">
         <v>238</v>
@@ -17515,7 +17516,7 @@
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B723">
         <v>139</v>
@@ -17535,7 +17536,7 @@
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B724">
         <v>233</v>
@@ -17555,7 +17556,7 @@
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B725">
         <v>247</v>
@@ -17575,7 +17576,7 @@
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B726">
         <v>9</v>
@@ -17595,7 +17596,7 @@
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B727">
         <v>25</v>
@@ -17615,7 +17616,7 @@
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B728">
         <v>73</v>
@@ -17635,7 +17636,7 @@
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B729">
         <v>184</v>
@@ -17655,7 +17656,7 @@
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B730">
         <v>38</v>
@@ -17675,7 +17676,7 @@
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B731">
         <v>38</v>
@@ -17695,7 +17696,7 @@
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B732">
         <v>69</v>
@@ -17715,7 +17716,7 @@
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B733">
         <v>65</v>
@@ -17735,7 +17736,7 @@
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B734">
         <v>8</v>
@@ -17755,7 +17756,7 @@
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B735">
         <v>234</v>
@@ -17775,7 +17776,7 @@
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B736">
         <v>184</v>
@@ -17795,7 +17796,7 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B737">
         <v>222</v>
@@ -17815,7 +17816,7 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B738">
         <v>252</v>
@@ -17835,7 +17836,7 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B739">
         <v>25</v>
@@ -17855,7 +17856,7 @@
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B740">
         <v>4</v>
@@ -17875,7 +17876,7 @@
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B741">
         <v>197</v>
@@ -17895,7 +17896,7 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B742">
         <v>52</v>
@@ -17915,7 +17916,7 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B743">
         <v>56</v>
@@ -17935,7 +17936,7 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B744">
         <v>52</v>
@@ -17955,7 +17956,7 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B745">
         <v>49</v>
@@ -17975,7 +17976,7 @@
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B746">
         <v>71</v>
@@ -17995,7 +17996,7 @@
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B747">
         <v>67</v>
@@ -18015,7 +18016,7 @@
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B748">
         <v>206</v>
@@ -18035,7 +18036,7 @@
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B749">
         <v>212</v>
@@ -18055,7 +18056,7 @@
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B750">
         <v>198</v>
@@ -18075,7 +18076,7 @@
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B751">
         <v>78</v>
@@ -18095,7 +18096,7 @@
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B752">
         <v>56</v>
@@ -18115,7 +18116,7 @@
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B753">
         <v>49</v>
@@ -18135,7 +18136,7 @@
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B754">
         <v>198</v>
@@ -18155,7 +18156,7 @@
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B755">
         <v>218</v>
@@ -18175,7 +18176,7 @@
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B756">
         <v>174</v>
@@ -18195,7 +18196,7 @@
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B757">
         <v>106</v>
@@ -18215,7 +18216,7 @@
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B758">
         <v>82</v>
@@ -18235,7 +18236,7 @@
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B759">
         <v>14</v>
@@ -18255,7 +18256,7 @@
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B760">
         <v>84</v>
@@ -18275,7 +18276,7 @@
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B761">
         <v>24</v>
@@ -18295,7 +18296,7 @@
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B762">
         <v>8</v>
@@ -18315,7 +18316,7 @@
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B763">
         <v>10</v>
@@ -18335,7 +18336,7 @@
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B764">
         <v>220</v>
@@ -18355,7 +18356,7 @@
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B765">
         <v>240</v>
@@ -18375,7 +18376,7 @@
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B766">
         <v>24</v>
@@ -18395,7 +18396,7 @@
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B767">
         <v>7</v>
@@ -18415,7 +18416,7 @@
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B768">
         <v>25</v>
@@ -18435,7 +18436,7 @@
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B769">
         <v>4</v>
@@ -18455,7 +18456,7 @@
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B770">
         <v>8</v>
@@ -18475,7 +18476,7 @@
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B771">
         <v>8</v>
@@ -18495,7 +18496,7 @@
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B772">
         <v>106</v>
@@ -18515,7 +18516,7 @@
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B773">
         <v>120</v>
@@ -18535,7 +18536,7 @@
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B774">
         <v>116</v>
@@ -18555,7 +18556,7 @@
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B775">
         <v>7</v>
@@ -18575,7 +18576,7 @@
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B776">
         <v>114</v>
@@ -18595,7 +18596,7 @@
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B777">
         <v>114</v>
@@ -18615,7 +18616,7 @@
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B778">
         <v>15</v>
@@ -18635,7 +18636,7 @@
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B779">
         <v>10</v>
@@ -18655,7 +18656,7 @@
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B780">
         <v>49</v>
@@ -18675,7 +18676,7 @@
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B781">
         <v>10</v>
@@ -18695,7 +18696,7 @@
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B782">
         <v>157</v>
@@ -18715,7 +18716,7 @@
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B783">
         <v>106</v>
@@ -18735,7 +18736,7 @@
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B784">
         <v>24</v>
@@ -18755,7 +18756,7 @@
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B785">
         <v>124</v>
@@ -18775,7 +18776,7 @@
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B786">
         <v>38</v>
@@ -18795,7 +18796,7 @@
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B787">
         <v>176</v>
@@ -18815,7 +18816,7 @@
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B788">
         <v>212</v>
@@ -18835,7 +18836,7 @@
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B789">
         <v>194</v>
@@ -18855,7 +18856,7 @@
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B790">
         <v>110</v>
@@ -18875,7 +18876,7 @@
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B791">
         <v>17</v>
@@ -18895,7 +18896,7 @@
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B792">
         <v>74</v>
@@ -18915,7 +18916,7 @@
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B793">
         <v>65</v>
@@ -18935,7 +18936,7 @@
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B794">
         <v>122</v>
@@ -18955,7 +18956,7 @@
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B795">
         <v>118</v>
@@ -18975,7 +18976,7 @@
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B796">
         <v>11</v>
@@ -18995,7 +18996,7 @@
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B797">
         <v>181</v>
@@ -19015,7 +19016,7 @@
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B798">
         <v>179</v>
@@ -19035,7 +19036,7 @@
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B799">
         <v>74</v>
@@ -19055,7 +19056,7 @@
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B800">
         <v>104</v>
@@ -19075,7 +19076,7 @@
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B801">
         <v>246</v>
@@ -19095,7 +19096,7 @@
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B802">
         <v>106</v>
@@ -19115,7 +19116,7 @@
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B803">
         <v>120</v>
@@ -19135,7 +19136,7 @@
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B804">
         <v>124</v>
@@ -19155,7 +19156,7 @@
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B805">
         <v>242</v>
@@ -19175,7 +19176,7 @@
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B806">
         <v>67</v>
@@ -19195,7 +19196,7 @@
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B807">
         <v>38</v>
@@ -19215,7 +19216,7 @@
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B808">
         <v>73</v>
@@ -19235,7 +19236,7 @@
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B809">
         <v>82</v>
@@ -19255,7 +19256,7 @@
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B810">
         <v>80</v>
@@ -19275,7 +19276,7 @@
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B811">
         <v>208</v>
@@ -19295,7 +19296,7 @@
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B812">
         <v>110</v>
@@ -19315,7 +19316,7 @@
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B813">
         <v>69</v>
@@ -19335,7 +19336,7 @@
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B814">
         <v>24</v>
@@ -19355,7 +19356,7 @@
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B815">
         <v>15</v>
@@ -19375,7 +19376,7 @@
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B816">
         <v>69</v>
@@ -19395,7 +19396,7 @@
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B817">
         <v>124</v>
@@ -19415,7 +19416,7 @@
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B818">
         <v>176</v>
@@ -19435,7 +19436,7 @@
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B819">
         <v>202</v>
@@ -19455,7 +19456,7 @@
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B820">
         <v>240</v>
@@ -19475,7 +19476,7 @@
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B821">
         <v>110</v>
@@ -19495,7 +19496,7 @@
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B822">
         <v>192</v>
@@ -19515,7 +19516,7 @@
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B823">
         <v>56</v>
@@ -19535,7 +19536,7 @@
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B824">
         <v>218</v>
@@ -19555,7 +19556,7 @@
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B825">
         <v>198</v>
@@ -19575,7 +19576,7 @@
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B826">
         <v>110</v>
@@ -19595,7 +19596,7 @@
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B827">
         <v>240</v>
@@ -19615,7 +19616,7 @@
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B828">
         <v>216</v>
@@ -19635,7 +19636,7 @@
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B829">
         <v>244</v>
@@ -19655,7 +19656,7 @@
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B830">
         <v>56</v>
@@ -19675,7 +19676,7 @@
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B831">
         <v>226</v>
@@ -19695,7 +19696,7 @@
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B832">
         <v>204</v>
@@ -19715,7 +19716,7 @@
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B833">
         <v>226</v>
@@ -19735,7 +19736,7 @@
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B834">
         <v>40</v>
@@ -19755,7 +19756,7 @@
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B835">
         <v>56</v>
@@ -19775,7 +19776,7 @@
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B836">
         <v>190</v>
@@ -19795,7 +19796,7 @@
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B837">
         <v>186</v>
@@ -19815,7 +19816,7 @@
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B838">
         <v>67</v>
@@ -19835,7 +19836,7 @@
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B839">
         <v>78</v>
@@ -19855,7 +19856,7 @@
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B840">
         <v>126</v>
@@ -19875,7 +19876,7 @@
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B841">
         <v>108</v>
@@ -19895,7 +19896,7 @@
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B842">
         <v>51</v>
@@ -19915,7 +19916,7 @@
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B843">
         <v>41</v>
@@ -19935,7 +19936,7 @@
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B844">
         <v>116</v>
@@ -19955,7 +19956,7 @@
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B845">
         <v>216</v>
@@ -19975,7 +19976,7 @@
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B846">
         <v>230</v>
@@ -19995,7 +19996,7 @@
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B847">
         <v>254</v>
@@ -20015,7 +20016,7 @@
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B848">
         <v>222</v>
@@ -20035,7 +20036,7 @@
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B849">
         <v>49</v>
@@ -20055,7 +20056,7 @@
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B850">
         <v>252</v>
@@ -20075,7 +20076,7 @@
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B851">
         <v>218</v>
@@ -20095,7 +20096,7 @@
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B852">
         <v>11</v>
@@ -20115,7 +20116,7 @@
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B853">
         <v>9</v>
@@ -20135,7 +20136,7 @@
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B854">
         <v>104</v>
@@ -20155,7 +20156,7 @@
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B855">
         <v>252</v>
@@ -20175,7 +20176,7 @@
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B856">
         <v>254</v>
@@ -20195,7 +20196,7 @@
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B857">
         <v>41</v>
@@ -20215,7 +20216,7 @@
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B858">
         <v>73</v>
@@ -20235,7 +20236,7 @@
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B859">
         <v>49</v>
@@ -20255,7 +20256,7 @@
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B860">
         <v>38</v>
@@ -20275,7 +20276,7 @@
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B861">
         <v>24</v>
@@ -20295,7 +20296,7 @@
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B862">
         <v>104</v>
@@ -20315,7 +20316,7 @@
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B863">
         <v>51</v>
@@ -20335,7 +20336,7 @@
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B864">
         <v>52</v>
@@ -20355,7 +20356,7 @@
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B865">
         <v>196</v>
@@ -20375,7 +20376,7 @@
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B866">
         <v>216</v>
@@ -20395,7 +20396,7 @@
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B867">
         <v>4</v>
@@ -20415,7 +20416,7 @@
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B868">
         <v>4</v>
@@ -20435,7 +20436,7 @@
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B869">
         <v>126</v>
@@ -20455,7 +20456,7 @@
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B870">
         <v>188</v>
@@ -20475,7 +20476,7 @@
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B871">
         <v>4</v>
@@ -20495,7 +20496,7 @@
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B872">
         <v>65</v>
@@ -20515,7 +20516,7 @@
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B873">
         <v>250</v>
@@ -20535,7 +20536,7 @@
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B874">
         <v>182</v>
@@ -20555,7 +20556,7 @@
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B875">
         <v>252</v>
@@ -20575,7 +20576,7 @@
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B876">
         <v>234</v>
@@ -20595,7 +20596,7 @@
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B877">
         <v>52</v>
@@ -20615,7 +20616,7 @@
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B878">
         <v>8</v>
@@ -20635,7 +20636,7 @@
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B879">
         <v>52</v>
@@ -20655,7 +20656,7 @@
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B880">
         <v>178</v>
@@ -20675,7 +20676,7 @@
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B881">
         <v>194</v>
@@ -20695,7 +20696,7 @@
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B882">
         <v>180</v>
@@ -20715,7 +20716,7 @@
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B883">
         <v>122</v>
@@ -20735,7 +20736,7 @@
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B884">
         <v>54</v>
@@ -20755,7 +20756,7 @@
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B885">
         <v>8</v>
@@ -20775,7 +20776,7 @@
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B886">
         <v>5</v>
@@ -20795,7 +20796,7 @@
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B887">
         <v>180</v>
@@ -20815,7 +20816,7 @@
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B888">
         <v>234</v>
@@ -20835,7 +20836,7 @@
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B889">
         <v>188</v>
@@ -20855,7 +20856,7 @@
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B890">
         <v>220</v>
@@ -20875,7 +20876,7 @@
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B891">
         <v>182</v>
@@ -20895,7 +20896,7 @@
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B892">
         <v>192</v>
@@ -20915,7 +20916,7 @@
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B893">
         <v>69</v>
@@ -20935,7 +20936,7 @@
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B894">
         <v>106</v>
@@ -20955,7 +20956,7 @@
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B895">
         <v>200</v>
@@ -20975,7 +20976,7 @@
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B896">
         <v>218</v>
@@ -20995,7 +20996,7 @@
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B897">
         <v>67</v>
@@ -21015,7 +21016,7 @@
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B898">
         <v>4</v>
@@ -21035,7 +21036,7 @@
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B899">
         <v>222</v>
@@ -21055,7 +21056,7 @@
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B900">
         <v>228</v>
@@ -21075,7 +21076,7 @@
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B901">
         <v>186</v>
@@ -21095,7 +21096,7 @@
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B902">
         <v>38</v>
@@ -21115,7 +21116,7 @@
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B903">
         <v>25</v>
@@ -21135,7 +21136,7 @@
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B904">
         <v>11</v>
@@ -21155,7 +21156,7 @@
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B905">
         <v>10</v>
@@ -21175,7 +21176,7 @@
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B906">
         <v>230</v>
@@ -21195,7 +21196,7 @@
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B907">
         <v>176</v>
@@ -21215,7 +21216,7 @@
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B908">
         <v>234</v>
@@ -21235,7 +21236,7 @@
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B909">
         <v>240</v>
@@ -21255,7 +21256,7 @@
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B910">
         <v>5</v>

--- a/Implementación/Test 3/pareto.xlsx
+++ b/Implementación/Test 3/pareto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TCLAMR\OneDrive\OneDrive - MIC\Documents\GitHub\Tesis\Implementación\Test 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5CCB9C3-9AB1-4013-B75F-6FFCBE079620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99792187-67A2-4FD0-94EB-FA05E125D43B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{477DE8B7-06EF-425C-B9AB-7458EE41456B}"/>
   </bookViews>
